--- a/Rinconcito_del_sabor/datos-RS.xlsx
+++ b/Rinconcito_del_sabor/datos-RS.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2978</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2994</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -9253,7 +9253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -87121,7 +87121,7 @@
       <c r="G2996" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2978"/>
+  <autoFilter ref="A1:H2994"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>